--- a/doc/API list.xlsx
+++ b/doc/API list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my dev\school\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71623DB5-0E81-430F-BB8B-0F984AC578F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385B1CD-29EF-4CE2-8C90-2386051765F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="142">
   <si>
     <t>Auth</t>
   </si>
@@ -419,10 +419,6 @@
     <t>Ẩn file</t>
   </si>
   <si>
-    <t>lesson
-grade_id</t>
-  </si>
-  <si>
     <t>DB</t>
   </si>
   <si>
@@ -430,10 +426,6 @@
 Class_lesson(lesson_id &amp; class_room_id)</t>
   </si>
   <si>
-    <t>Lesson(lesson/grade_id)
-/Class_lesson(class_room_id)</t>
-  </si>
-  <si>
     <t>year_id
 class room</t>
   </si>
@@ -442,15 +434,6 @@
   </si>
   <si>
     <t>/academic/lessons</t>
-  </si>
-  <si>
-    <t>lesson_id
-lesson
-grade_id</t>
-  </si>
-  <si>
-    <t>lesson/
-grade_id(classroom_id)</t>
   </si>
   <si>
     <t>xong</t>
@@ -486,8 +469,17 @@
     <t>/files/&lt;id&gt;/</t>
   </si>
   <si>
+    <t>Users(username, password, role)
+Tmp_token(token)
+Teacher(name)
+Teacher_info(tel, email, add)
+Teach_room(teach_class, year_id)
+Class_room(teacher_id, year_id) if any</t>
+  </si>
+  <si>
     <t>name
 lesson_id
+class_room_id
 class_room_id
 teach_room_id: list
 tel
@@ -497,22 +489,49 @@
 year_id</t>
   </si>
   <si>
-    <t>Users(username, password, role)
-Tmp_token(token)
-Teacher(name)
-Teacher_info(tel, email, add)
-Teach_room(teach_class, year_id)
-Class_room(teacher_id, year_id) if any</t>
+    <t>/teachers/&lt;int:id&gt;/status</t>
+  </si>
+  <si>
+    <t>thay đổi status teacher</t>
+  </si>
+  <si>
+    <t>status: True &lt;=&gt; False</t>
   </si>
   <si>
     <t>name
 grade_id
-year_id
+year + id
 gender
 bod | None
 class_room + id | None
 tel | None
 add</t>
+  </si>
+  <si>
+    <t>Xong</t>
+  </si>
+  <si>
+    <t>Lesson(lesson/grade_id)
+LessonTag(is_folder/is_schedule/is_visible)
+Teach_class(class_room_id, lesson_id, year_id)</t>
+  </si>
+  <si>
+    <t>lesson + id
+year_id
+grade_id
+is_folder/is_schedule/is_visible</t>
+  </si>
+  <si>
+    <t>lesson
+year_id
+grade_id
+is_folder/is_schedule/is_visible</t>
+  </si>
+  <si>
+    <t>/academic/scores</t>
+  </si>
+  <si>
+    <t>/acadmic/schedule</t>
   </si>
 </sst>
 </file>
@@ -842,20 +861,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="23.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="55.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="1"/>
@@ -881,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -907,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -928,7 +948,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -946,7 +966,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -972,7 +992,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1054,7 +1074,7 @@
         <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1078,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1099,15 +1119,15 @@
         <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -1125,7 +1145,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1142,14 +1162,14 @@
         <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1164,11 +1184,14 @@
         <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1183,7 +1206,7 @@
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
@@ -1211,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1235,7 +1258,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1257,7 +1280,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1278,6 +1301,9 @@
       <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -1316,6 +1342,9 @@
       <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1335,6 +1364,9 @@
       <c r="G22" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
@@ -1357,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,7 +1430,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1419,8 +1451,11 @@
       <c r="G26" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
         <v>78</v>
@@ -1438,11 +1473,12 @@
       <c r="G27" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1451,23 +1487,23 @@
         <v>73</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>28</v>
@@ -1476,25 +1512,23 @@
         <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>59</v>
@@ -1510,13 +1544,13 @@
         <v>24</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -1525,7 +1559,7 @@
         <v>75</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>76</v>
@@ -1534,319 +1568,302 @@
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H34" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="I34" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>132</v>
+      <c r="H44" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>109</v>
@@ -1855,18 +1872,85 @@
         <v>52</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A49"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A13:A31"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A34:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/API list.xlsx
+++ b/doc/API list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my dev\school\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385B1CD-29EF-4CE2-8C90-2386051765F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA51BC3-0DE3-4AA3-B118-A10CD2487457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="173">
   <si>
     <t>Auth</t>
   </si>
@@ -112,33 +112,13 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>Lấy thông tin user_id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>user's info</t>
   </si>
   <si>
     <t>PUT</t>
   </si>
   <si>
-    <t>update thông tin user_id</t>
-  </si>
-  <si>
-    <t>/users/&lt;id&gt;</t>
-  </si>
-  <si>
-    <t>/users/&lt;id&gt;/password</t>
-  </si>
-  <si>
     <t>change password</t>
-  </si>
-  <si>
-    <t>user_id
-password
-repassword</t>
   </si>
   <si>
     <t>set password</t>
@@ -150,25 +130,7 @@
 repassword</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Teacher
-</t>
-  </si>
-  <si>
-    <t>/users/&lt;id&gt;/tmp_token</t>
-  </si>
-  <si>
-    <t>check tmp_token</t>
-  </si>
-  <si>
     <t>tmp token</t>
-  </si>
-  <si>
-    <t>users_id
-username</t>
-  </si>
-  <si>
-    <t>renew tmp_token</t>
   </si>
   <si>
     <t>Lấy danh sách monitoring</t>
@@ -311,9 +273,6 @@
     <t>grade</t>
   </si>
   <si>
-    <t>grade_id</t>
-  </si>
-  <si>
     <t>Xóa môn học</t>
   </si>
   <si>
@@ -420,10 +379,6 @@
   </si>
   <si>
     <t>DB</t>
-  </si>
-  <si>
-    <t>Lesson(lesson_id &amp; lesson &amp; grade_id)
-Class_lesson(lesson_id &amp; class_room_id)</t>
   </si>
   <si>
     <t>year_id
@@ -451,10 +406,6 @@
 fileext
 filesize
 user_id</t>
-  </si>
-  <si>
-    <t>grade_id
-lesson</t>
   </si>
   <si>
     <t>download</t>
@@ -498,8 +449,109 @@
     <t>status: True &lt;=&gt; False</t>
   </si>
   <si>
+    <t>Xong</t>
+  </si>
+  <si>
+    <t>/academic/scores</t>
+  </si>
+  <si>
+    <t>/acadmic/schedule</t>
+  </si>
+  <si>
+    <t>/users/me</t>
+  </si>
+  <si>
+    <t>update thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>email
+tel
+add</t>
+  </si>
+  <si>
+    <t>/users/me/password</t>
+  </si>
+  <si>
+    <t>password
+repassword</t>
+  </si>
+  <si>
+    <t>/users/years/&lt;id&gt;/me</t>
+  </si>
+  <si>
+    <t>Lấy thông tin cá nhân theo năm học</t>
+  </si>
+  <si>
+    <t>/users/me/tmp_token</t>
+  </si>
+  <si>
+    <t>check tmp_token để đặt password</t>
+  </si>
+  <si>
+    <t>/users/&lt;id&gt;/role</t>
+  </si>
+  <si>
+    <t>change role cho user</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>/teachers/&lt;id&gt;/password/reset-email</t>
+  </si>
+  <si>
+    <t>Gửi lại email cho giáo viên đặt mật khẩu</t>
+  </si>
+  <si>
+    <t>/years/&lt;id&gt;/students/assignment</t>
+  </si>
+  <si>
+    <t>Lấy danh sách student mới để xét duyệt lên lớp/lưu ban</t>
+  </si>
+  <si>
+    <t>Lấy danh sách student sau xét duyệt để xếp lớp</t>
+  </si>
+  <si>
+    <t>/years/&lt;id&gt;/students/review</t>
+  </si>
+  <si>
+    <t>Xét duyệt cho học sinh mới</t>
+  </si>
+  <si>
+    <t>Xếp lớp cho học sinh</t>
+  </si>
+  <si>
+    <t>grade 
+assign_status</t>
+  </si>
+  <si>
+    <t>lesson
+year_id
+grade
+is_folder/is_schedule/is_visible</t>
+  </si>
+  <si>
+    <t>Lesson(lesson/grade)
+LessonTag(is_folder/is_schedule/is_visible)
+Teach_class(class_room_id, lesson_id, year_id)</t>
+  </si>
+  <si>
+    <t>lesson + id
+year_id
+grade
+is_folder/is_schedule/is_visible</t>
+  </si>
+  <si>
+    <t>Lesson(lesson_id &amp; lesson &amp; grade)
+Class_lesson(lesson_id &amp; class_room_id)</t>
+  </si>
+  <si>
+    <t>grade
+lesson</t>
+  </si>
+  <si>
     <t>name
-grade_id
+grade
 year + id
 gender
 bod | None
@@ -508,30 +560,82 @@
 add</t>
   </si>
   <si>
-    <t>Xong</t>
-  </si>
-  <si>
-    <t>Lesson(lesson/grade_id)
-LessonTag(is_folder/is_schedule/is_visible)
-Teach_class(class_room_id, lesson_id, year_id)</t>
-  </si>
-  <si>
-    <t>lesson + id
-year_id
-grade_id
-is_folder/is_schedule/is_visible</t>
-  </si>
-  <si>
-    <t>lesson
-year_id
-grade_id
-is_folder/is_schedule/is_visible</t>
-  </si>
-  <si>
-    <t>/academic/scores</t>
-  </si>
-  <si>
-    <t>/acadmic/schedule</t>
+    <t>grade
+review_status
+status</t>
+  </si>
+  <si>
+    <t>student_id
+status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[class_room_id, student_id] </t>
+  </si>
+  <si>
+    <t>/years/&lt;id&gt;/students/summary</t>
+  </si>
+  <si>
+    <t>Lấy danh sách student để tổng kết năm</t>
+  </si>
+  <si>
+    <t>/semesters/&lt;id&gt;/students/summary</t>
+  </si>
+  <si>
+    <t>class_room_id
+year_id</t>
+  </si>
+  <si>
+    <t>/scores/students/weak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET </t>
+  </si>
+  <si>
+    <t>Lấy danh sách student có điểm TB kém (dưới 5)</t>
+  </si>
+  <si>
+    <t>year_id,
+semester_id,
+class_room_id</t>
+  </si>
+  <si>
+    <t>/years/&lt;id&gt;/students/summary/result</t>
+  </si>
+  <si>
+    <t>Lấy danh sách student với kết quả cả năm</t>
+  </si>
+  <si>
+    <t>class_room_id,
+learning_status,
+status</t>
+  </si>
+  <si>
+    <t>/years/&lt;id&gt;/students/retest</t>
+  </si>
+  <si>
+    <t>Lấy danh sách student thi lại</t>
+  </si>
+  <si>
+    <t>Cho điểm học sinh thi lại</t>
+  </si>
+  <si>
+    <t>grade
+class_room_id
+lesson_id</t>
+  </si>
+  <si>
+    <t>student_id
+lesson_id
+score</t>
+  </si>
+  <si>
+    <t>/years/&lt;id&gt;/students/summary/retest</t>
+  </si>
+  <si>
+    <t>Tổng kết điểm thi lại cho học sinh</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -861,19 +965,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="29.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
@@ -888,7 +992,7 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -901,7 +1005,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -914,7 +1018,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -927,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
@@ -938,7 +1042,7 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -948,7 +1052,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -959,19 +1063,19 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>20</v>
@@ -979,7 +1083,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -992,332 +1096,333 @@
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="I9" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
+      <c r="D10" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="I10" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
+      <c r="D12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="1" t="s">
@@ -1327,253 +1432,262 @@
     <row r="21" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>88</v>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
+      <c r="D25" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="3"/>
+      <c r="I27" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>73</v>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>26</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
+      <c r="D31" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1581,10 +1695,13 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
+      <c r="I32" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>2</v>
@@ -1592,330 +1709,332 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
+      <c r="I33" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="34" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>47</v>
+      <c r="D34" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>42</v>
+      <c r="D35" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="3"/>
       <c r="G37" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>90</v>
+        <v>26</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="I38" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
       <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>96</v>
+      <c r="D40" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="D44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="I45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="3"/>
       <c r="I46" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>109</v>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="3"/>
       <c r="I48" s="1" t="s">
         <v>121</v>
       </c>
@@ -1923,32 +2042,272 @@
     <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="I49" s="1" t="s">
         <v>121</v>
       </c>
     </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="I50" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="I52" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="I53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="I54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="I55" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A13:A31"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
